--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2095585.196673776</v>
+        <v>2171114.86633858</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>382.8507525602069</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>310.2076895021003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>48.91401559658163</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>60.26951970765048</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.0839683962665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>99.44420492154089</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>115.2741345058928</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>108.9016317810219</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>28.87732785490044</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>10.70611463921621</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>235.4745188564441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835359</v>
+        <v>6.92476522969435</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>59.77945773664958</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>209.1695767361642</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896911</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274171</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>103.3388316365583</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>114.7872343431367</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>106.5332566318394</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>138.3863005245258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>63.77510169113958</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>100.4879364842347</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>223.0720281452561</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.65197883716</v>
+        <v>43.47188383849295</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>55.47304163446504</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>851.6468184889688</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>851.6468184889688</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>440.6609136993613</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2383.80799051105</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.34223224997</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>261.099450950038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>103.3510783825681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.270788283222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.270788283222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>154.3916736603047</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>955.5060781830496</v>
+        <v>1705.877315537685</v>
       </c>
       <c r="C8" t="n">
-        <v>586.5435612426379</v>
+        <v>1705.877315537685</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358873</v>
+        <v>1705.877315537685</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>1320.089062939441</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>909.1031581498332</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>491.1393500480201</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>163.9446300840229</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036447</v>
@@ -4835,19 +4837,19 @@
         <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2436.773895827634</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2105.711008484063</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="W8" t="n">
-        <v>2105.711008484063</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="X8" t="n">
-        <v>1732.245250222983</v>
+        <v>2092.477155601807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1342.105918247171</v>
+        <v>2092.477155601807</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036447</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>490.0065396637069</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5035,25 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5185,13 +5187,13 @@
         <v>401.5197597634796</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5285,7 +5287,7 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619129</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5467,19 +5469,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>752.8533410811858</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>498.168852875299</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5506,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822472</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5592,22 +5594,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028587</v>
@@ -5701,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.6983841950421</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.6983841950421</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1191.386910340284</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1191.386910340284</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1191.386910340284</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.386910340284</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>963.3973594422661</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.6047802987359</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>824.3515998808206</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>824.3515998808206</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6470,43 +6472,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,19 +6551,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>462.1710339621931</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>462.1710339621931</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>312.0543945498573</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>312.0543945498573</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>312.0543945498573</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>643.8194987924328</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6694,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6777,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>346.6331511883706</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6886,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6919,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7123,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1073.67097951865</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1073.67097951865</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>784.2538094816899</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>784.2538094816899</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7257,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1375.025382843599</v>
+        <v>1455.005276781647</v>
       </c>
       <c r="T40" t="n">
-        <v>1151.239967633105</v>
+        <v>1231.219861571153</v>
       </c>
       <c r="U40" t="n">
-        <v>862.1113288466635</v>
+        <v>942.091222784711</v>
       </c>
       <c r="V40" t="n">
-        <v>607.4268406407766</v>
+        <v>687.4067345788242</v>
       </c>
       <c r="W40" t="n">
-        <v>318.0096706038159</v>
+        <v>687.4067345788242</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>687.4067345788242</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>687.4067345788242</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7406,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632138</v>
+        <v>562.0930141766539</v>
       </c>
       <c r="D43" t="n">
-        <v>822.148054050878</v>
+        <v>562.0930141766539</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684849</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
         <v>359.1696912903951</v>
@@ -7564,7 +7566,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7645,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7664,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>462.7283310300498</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365139</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>277.6717966208063</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>176.717654749845</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.567000675024</v>
+        <v>159.5688032336832</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.63978772762241</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>77.06777566241317</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>183.1841667000327</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>34.12659402439944</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>115.0143044265498</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>113.7513427993022</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>102.718466772238</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>66.0056319791429</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>63.16532425332124</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>75.26883114644322</v>
+        <v>154.4489261451103</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>90.96092101210414</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327919</v>
-      </c>
       <c r="K2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327921</v>
@@ -26369,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768959</v>
@@ -26424,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.4835177339</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26506,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>308521.4739844612</v>
       </c>
       <c r="E6" t="n">
-        <v>-106139.1623105544</v>
+        <v>-106139.1623105543</v>
       </c>
       <c r="F6" t="n">
-        <v>419020.8741663414</v>
+        <v>419020.8741663416</v>
       </c>
       <c r="G6" t="n">
         <v>419020.8741663414</v>
       </c>
       <c r="H6" t="n">
-        <v>419020.8741663413</v>
+        <v>419020.8741663411</v>
       </c>
       <c r="I6" t="n">
-        <v>419020.8741663416</v>
+        <v>419020.8741663417</v>
       </c>
       <c r="J6" t="n">
-        <v>242597.6549737483</v>
+        <v>242597.6549737486</v>
       </c>
       <c r="K6" t="n">
-        <v>419020.8741663417</v>
+        <v>419020.8741663415</v>
       </c>
       <c r="L6" t="n">
-        <v>419020.8741663417</v>
+        <v>419020.8741663415</v>
       </c>
       <c r="M6" t="n">
         <v>284219.8589325043</v>
       </c>
       <c r="N6" t="n">
-        <v>419020.8741663413</v>
+        <v>419020.8741663415</v>
       </c>
       <c r="O6" t="n">
-        <v>419020.874166342</v>
+        <v>419020.8741663414</v>
       </c>
       <c r="P6" t="n">
-        <v>419020.8741663415</v>
+        <v>419020.8741663416</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370134</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>30.93341746058809</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.03327921531269</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>86.05160619575659</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>114.146193101321</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.1539702597871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>46.98975772502828</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>171.0077397360849</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0296844638393</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>222.3468396533889</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>18.41663531569806</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.80735538553358</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29563,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35650,13 +35652,13 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35975,10 +35977,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36127,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36674,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,13 +36685,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>588.0961736712726</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>327.2930933377842</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2171114.86633858</v>
+        <v>2164097.851446868</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>382.8507525602069</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>251.6298792882203</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>38.14888646394774</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>60.26951970765048</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>99.44420492154089</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.714056408044508</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>108.9016317810219</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.6305324976342</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.70611463921621</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.82466560786642</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.92476522969435</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>260.559504155539</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>59.77945773664958</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847143</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896911</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274171</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.063010891604542</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>103.3388316365583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>74.81067239650341</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.7872343431367</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>66.988366393129</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>63.77510169113958</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>100.4879364842347</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>223.0720281452561</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.47188383849295</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>55.47304163446504</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1209.912517095719</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1209.912517095719</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D2" t="n">
-        <v>851.6468184889688</v>
+        <v>1522.852542550656</v>
       </c>
       <c r="E2" t="n">
-        <v>851.6468184889688</v>
+        <v>1137.064289952412</v>
       </c>
       <c r="F2" t="n">
-        <v>440.6609136993613</v>
+        <v>726.0783851628041</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>308.114577060991</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1209.912517095719</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>962.9693282917585</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>594.0068113513469</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.270788283222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2636.270788283222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2382.509002921313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
-        <v>304.5083130726405</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D7" t="n">
-        <v>154.3916736603047</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.0994509500379</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>103.351078382568</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537685</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.877315537685</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.877315537685</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1320.089062939441</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>909.1031581498332</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>491.1393500480201</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>163.9446300840229</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862887</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601807</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601807</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>717.3147269951052</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>717.3147269951052</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>717.3147269951052</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>490.0065396637069</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>200.8329293182748</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V10" t="n">
-        <v>200.8329293182748</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5345,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013836</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>157.6003821033663</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5503,16 +5503,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805479</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822472</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5530,16 +5530,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>272.2775278140559</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>103.341344886149</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.613602254709</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="X19" t="n">
-        <v>966.6240513566914</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>453.9259926442957</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>1423.349934803859</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727022</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690061</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>324.6983841950421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>324.6983841950421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929525</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1320.176150561012</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1031.04751177457</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>462.1710339621931</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>462.1710339621931</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>312.0543945498573</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>312.0543945498573</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>312.0543945498573</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293934</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>643.8194987924328</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>643.8194987924328</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>643.8194987924328</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>346.6331511883706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>198.7200576059774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>198.7200576059774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.4612303381598</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
         <v>247.6350999123426</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1073.67097951865</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1073.67097951865</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>784.2538094816899</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>784.2538094816899</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.4612303381598</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,13 +7186,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1455.005276781647</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1231.219861571153</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>942.091222784711</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>687.4067345788242</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>687.4067345788242</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>687.4067345788242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>687.4067345788242</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,10 +7390,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>562.0930141766539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>562.0930141766539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670008</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208048</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>127.646125010065</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>159.5688032336832</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>25.963494181052</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63978772762241</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>142.5524621266078</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>183.1841667000327</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.4266800020739</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.3938331833848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>64.30500338171925</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>34.12659402439944</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>154.5591946652602</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>102.718466772238</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>66.0056319791429</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>63.16532425332124</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>154.4489261451103</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>90.96092101210414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327923</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327921</v>
@@ -26355,7 +26355,7 @@
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="K4" t="n">
         <v>36432.4835177339</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300829</v>
+        <v>-281446.405230083</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844614</v>
+        <v>308521.4739844612</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844612</v>
+        <v>308521.473984461</v>
       </c>
       <c r="E6" t="n">
-        <v>-106139.1623105543</v>
+        <v>-107113.7535702766</v>
       </c>
       <c r="F6" t="n">
-        <v>419020.8741663416</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="G6" t="n">
-        <v>419020.8741663414</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="H6" t="n">
-        <v>419020.8741663411</v>
+        <v>418046.2829066201</v>
       </c>
       <c r="I6" t="n">
-        <v>419020.8741663417</v>
+        <v>418046.2829066196</v>
       </c>
       <c r="J6" t="n">
-        <v>242597.6549737486</v>
+        <v>241623.0637140268</v>
       </c>
       <c r="K6" t="n">
-        <v>419020.8741663415</v>
+        <v>418046.2829066198</v>
       </c>
       <c r="L6" t="n">
-        <v>419020.8741663415</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="M6" t="n">
-        <v>284219.8589325043</v>
+        <v>283245.2676727832</v>
       </c>
       <c r="N6" t="n">
-        <v>419020.8741663415</v>
+        <v>418046.2829066198</v>
       </c>
       <c r="O6" t="n">
-        <v>419020.8741663414</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="P6" t="n">
-        <v>419020.8741663416</v>
+        <v>418046.2829066196</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.93341746058809</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>72.2928934761369</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>316.5341551567352</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>114.146193101321</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>46.98975772502828</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>131.2515653842937</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>43.0296844638393</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>222.6104362197788</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.41663531569806</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>202.6983327287246</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>588.0961736712726</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523295</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7395399415897</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164097.851446868</v>
+        <v>2169037.114295902</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>251.6298792882203</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913975</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>38.14888646394774</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>21.17278762841644</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.714056408044508</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>6.283679164005257</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>126.6305324976342</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365816</v>
       </c>
       <c r="W10" t="n">
-        <v>83.82466560786642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>260.559504155539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>26.12759070766478</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>183.4653217847143</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>169.2079826901947</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.063010891604542</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>114.9309043193592</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>74.81067239650341</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273247</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.4046520073146</v>
       </c>
       <c r="T28" t="n">
-        <v>66.988366393129</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>183.1796758467005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.315822205649</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>91.94988401775056</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3228038217186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.118241157406</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1881.118241157406</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1522.852542550656</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1137.064289952412</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>726.0783851628041</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>308.114577060991</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.118241157406</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917585</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>594.0068113513469</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>228.7956119953924</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4606,7 +4606,7 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
         <v>1739.708500331692</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064343</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064343</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940986</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117055</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>430.0992512117055</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>261.0994509500379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>103.351078382568</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4789,58 +4789,58 @@
         <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
         <v>2338.033285077397</v>
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649891</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551154</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,28 +5041,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>468.1263100161517</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>468.1263100161517</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341675</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5509,34 +5509,34 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>272.2775278140559</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C19" t="n">
-        <v>103.341344886149</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247865</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247865</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878258</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878258</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y19" t="n">
-        <v>453.9259926442957</v>
+        <v>677.999939105308</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,13 +5737,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5755,10 +5755,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1423.349934803859</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1168.665446597972</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>879.2482765610114</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X22" t="n">
-        <v>879.2482765610114</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.2482765610114</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550594</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610183</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003432</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405188</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155804</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805385</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822377</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619124</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141859</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465293</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121722</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851608</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590528</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614716</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636231</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T28" t="n">
-        <v>1320.176150561012</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U28" t="n">
-        <v>1031.04751177457</v>
+        <v>822.9672145333728</v>
       </c>
       <c r="V28" t="n">
-        <v>776.3630235686835</v>
+        <v>568.282726327486</v>
       </c>
       <c r="W28" t="n">
-        <v>486.9458535317228</v>
+        <v>278.8655562905254</v>
       </c>
       <c r="X28" t="n">
-        <v>486.9458535317228</v>
+        <v>278.8655562905254</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905254</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,49 +6448,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2317.834075963125</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6621,49 +6621,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706293</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028587</v>
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,13 +6876,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1382.222354598086</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1406.037599832902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1206.117589748454</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>247.6350999123426</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.6350999123426</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270186</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951775</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.409182577681</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208121</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>25.963494181052</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5820646813724</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>10.62399749174264</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>142.5524621266078</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>52.3159167792686</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>211.4266800020739</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.30500338171925</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628872</v>
       </c>
       <c r="T28" t="n">
-        <v>154.5591946652602</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338818</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>18.01446838604224</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.38685156731853</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049992</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="K2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327916</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327916</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925912</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.056796008924721e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338369</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="G4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773393</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773437</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.4835177339</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773396</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-281446.405230083</v>
       </c>
       <c r="C6" t="n">
+        <v>308521.4739844619</v>
+      </c>
+      <c r="D6" t="n">
         <v>308521.4739844612</v>
       </c>
-      <c r="D6" t="n">
-        <v>308521.473984461</v>
-      </c>
       <c r="E6" t="n">
-        <v>-107113.7535702766</v>
+        <v>-106236.6214365262</v>
       </c>
       <c r="F6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.415040369</v>
       </c>
       <c r="G6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403691</v>
       </c>
       <c r="H6" t="n">
-        <v>418046.2829066201</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="I6" t="n">
-        <v>418046.2829066196</v>
+        <v>418923.4150403692</v>
       </c>
       <c r="J6" t="n">
-        <v>241623.0637140268</v>
+        <v>242500.1958477782</v>
       </c>
       <c r="K6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403691</v>
       </c>
       <c r="L6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403683</v>
       </c>
       <c r="M6" t="n">
-        <v>283245.2676727832</v>
+        <v>284122.3998065324</v>
       </c>
       <c r="N6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403691</v>
       </c>
       <c r="O6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403689</v>
       </c>
       <c r="P6" t="n">
-        <v>418046.2829066196</v>
+        <v>418923.4150403689</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-3.751897654485911e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>72.2928934761369</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594881</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>316.5341551567352</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>392.6113823923786</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>131.2515653842937</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>168.1320336449662</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>222.6104362197788</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>96.92615468724642</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6983327287246</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.554934538551606e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560235</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092049</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523362</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686844</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
